--- a/TestFile_LOADTMP.xlsx
+++ b/TestFile_LOADTMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.shell.com/personal/jelle_wassenaar_shell_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E10A37-A1A6-42EF-9390-793C84998034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{17E10A37-A1A6-42EF-9390-793C84998034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF55FA7-5246-452A-B7E6-C30605021722}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{53E0BA6F-5427-46D0-8205-8964A96A0BA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="175">
   <si>
     <t>Site</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>Chlorine Concentration in Cooling Water 10</t>
+  </si>
+  <si>
+    <t>Chlorine Concentration in Cooling Water 11</t>
+  </si>
+  <si>
+    <t>New Activity Test  19</t>
   </si>
 </sst>
 </file>
@@ -950,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF89A87F-E1A0-4442-9411-9363644F6D6E}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AL49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5199,6 +5205,92 @@
         <v>80</v>
       </c>
       <c r="AL49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" ht="236.25" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL50" s="2" t="s">
         <v>52</v>
       </c>
     </row>
